--- a/Analytics/SP1/MultiBookings_sp1.xlsx
+++ b/Analytics/SP1/MultiBookings_sp1.xlsx
@@ -97,6 +97,9 @@
     <t>Alaves</t>
   </si>
   <si>
+    <t>Celta</t>
+  </si>
+  <si>
     <t>Valencia</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
   </si>
   <si>
     <t>Granada</t>
-  </si>
-  <si>
-    <t>Celta</t>
   </si>
   <si>
     <t>Barcelona</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>21125.0</v>
+        <v>22725.0</v>
       </c>
     </row>
     <row r="3">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>11800.0</v>
+        <v>11950.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>11500.0</v>
+        <v>11800.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>11250.0</v>
+        <v>11500.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>10375.0</v>
+        <v>11250.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>10250.0</v>
+        <v>10375.0</v>
       </c>
     </row>
     <row r="12">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>14200.0</v>
+        <v>15400.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>13700.0</v>
+        <v>14200.0</v>
       </c>
     </row>
     <row r="6">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>9000.0</v>
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>7700.0</v>
+        <v>8350.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>6750.0</v>
+        <v>7700.0</v>
       </c>
     </row>
     <row r="19">
@@ -664,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
         <v>4300.0</v>
@@ -703,10 +703,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>45925.0</v>
+        <v>47525.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1208.5526315789473</v>
+        <v>1250.657894736842</v>
       </c>
     </row>
     <row r="3">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>24075.0</v>
+        <v>25775.0</v>
       </c>
       <c r="D5" t="n">
-        <v>633.5526315789474</v>
+        <v>678.2894736842105</v>
       </c>
     </row>
     <row r="6">
@@ -840,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>20500.0</v>
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>19400.0</v>
+        <v>20150.0</v>
       </c>
       <c r="D13" t="n">
-        <v>510.5263157894737</v>
+        <v>530.2631578947369</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>19050.0</v>
+        <v>19400.0</v>
       </c>
       <c r="D14" t="n">
-        <v>501.3157894736842</v>
+        <v>510.5263157894737</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>18950.0</v>
+        <v>19050.0</v>
       </c>
       <c r="D15" t="n">
-        <v>498.6842105263158</v>
+        <v>501.3157894736842</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>18550.0</v>
+        <v>18950.0</v>
       </c>
       <c r="D16" t="n">
-        <v>488.1578947368421</v>
+        <v>498.6842105263158</v>
       </c>
     </row>
     <row r="17">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>16000.0</v>
+        <v>16250.0</v>
       </c>
       <c r="D18" t="n">
-        <v>421.05263157894734</v>
+        <v>427.63157894736844</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" t="n">
-        <v>14900.0</v>
+        <v>16000.0</v>
       </c>
       <c r="D19" t="n">
-        <v>392.10526315789474</v>
+        <v>421.05263157894734</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>14550.0</v>
+        <v>14900.0</v>
       </c>
       <c r="D20" t="n">
-        <v>382.89473684210526</v>
+        <v>392.10526315789474</v>
       </c>
     </row>
     <row r="21">

--- a/Analytics/SP1/MultiBookings_sp1.xlsx
+++ b/Analytics/SP1/MultiBookings_sp1.xlsx
@@ -82,64 +82,64 @@
     <t>20</t>
   </si>
   <si>
+    <t>Valencia</t>
+  </si>
+  <si>
     <t>Getafe</t>
   </si>
   <si>
-    <t>Cadiz</t>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Alaves</t>
   </si>
   <si>
     <t>Vallecano</t>
   </si>
   <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Betis</t>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
   </si>
   <si>
     <t>Mallorca</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
     <t>Ath Madrid</t>
   </si>
   <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Leganes</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -148,7 +148,7 @@
     <t>SUM("TMultiBookings")</t>
   </si>
   <si>
-    <t>SUM("TMultiBookings") / 38</t>
+    <t>SUM("TMultiBookings") / 12</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>22725.0</v>
+        <v>8600.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>19550.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>13100.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>12150.0</v>
+        <v>4100.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>12150.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>11950.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>11800.0</v>
+        <v>3650.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>11500.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>11250.0</v>
+        <v>3150.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>10375.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>9750.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>9650.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>9550.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>9250.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>9000.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>8700.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>8350.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>7600.0</v>
+        <v>1350.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>6550.0</v>
+        <v>1100.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>5800.0</v>
+        <v>600.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>24800.0</v>
+        <v>7700.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>16300.0</v>
+        <v>6800.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>15400.0</v>
+        <v>5150.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>14200.0</v>
+        <v>4850.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>12625.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>12475.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>12400.0</v>
+        <v>3150.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>11800.0</v>
+        <v>3050.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>11200.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>11000.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>10050.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>9000.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>8800.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>8750.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>8350.0</v>
+        <v>1950.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>8350.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>7700.0</v>
+        <v>1700.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>6750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>6500.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>4300.0</v>
+        <v>1100.0</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>47525.0</v>
+        <v>12000.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1250.657894736842</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>30550.0</v>
+        <v>11700.0</v>
       </c>
       <c r="D3" t="n">
-        <v>803.9473684210526</v>
+        <v>975.0</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>29400.0</v>
+        <v>9600.0</v>
       </c>
       <c r="D4" t="n">
-        <v>773.6842105263158</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>25775.0</v>
+        <v>9400.0</v>
       </c>
       <c r="D5" t="n">
-        <v>678.2894736842105</v>
+        <v>783.3333333333334</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>23350.0</v>
+        <v>8550.0</v>
       </c>
       <c r="D6" t="n">
-        <v>614.4736842105264</v>
+        <v>712.5</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>22550.0</v>
+        <v>7550.0</v>
       </c>
       <c r="D7" t="n">
-        <v>593.421052631579</v>
+        <v>629.1666666666666</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>22375.0</v>
+        <v>6800.0</v>
       </c>
       <c r="D8" t="n">
-        <v>588.8157894736842</v>
+        <v>566.6666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>22025.0</v>
+        <v>6050.0</v>
       </c>
       <c r="D9" t="n">
-        <v>579.6052631578947</v>
+        <v>504.1666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>21100.0</v>
+        <v>5400.0</v>
       </c>
       <c r="D10" t="n">
-        <v>555.2631578947369</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>20950.0</v>
+        <v>5300.0</v>
       </c>
       <c r="D11" t="n">
-        <v>551.3157894736842</v>
+        <v>441.6666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>20500.0</v>
+        <v>5250.0</v>
       </c>
       <c r="D12" t="n">
-        <v>539.4736842105264</v>
+        <v>437.5</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>20150.0</v>
+        <v>5200.0</v>
       </c>
       <c r="D13" t="n">
-        <v>530.2631578947369</v>
+        <v>433.3333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>19400.0</v>
+        <v>5100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>510.5263157894737</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>19050.0</v>
+        <v>5100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>501.3157894736842</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>18950.0</v>
+        <v>5050.0</v>
       </c>
       <c r="D16" t="n">
-        <v>498.6842105263158</v>
+        <v>420.8333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>18400.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D17" t="n">
-        <v>484.2105263157895</v>
+        <v>333.3333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>16250.0</v>
+        <v>3600.0</v>
       </c>
       <c r="D18" t="n">
-        <v>427.63157894736844</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>16000.0</v>
+        <v>3200.0</v>
       </c>
       <c r="D19" t="n">
-        <v>421.05263157894734</v>
+        <v>266.6666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>14900.0</v>
+        <v>3100.0</v>
       </c>
       <c r="D20" t="n">
-        <v>392.10526315789474</v>
+        <v>258.3333333333333</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>12300.0</v>
+        <v>2750.0</v>
       </c>
       <c r="D21" t="n">
-        <v>323.6842105263158</v>
+        <v>229.16666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SP1/MultiBookings_sp1.xlsx
+++ b/Analytics/SP1/MultiBookings_sp1.xlsx
@@ -85,42 +85,45 @@
     <t>Valencia</t>
   </si>
   <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
     <t>Getafe</t>
   </si>
   <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
+    <t>Mallorca</t>
   </si>
   <si>
     <t>Las Palmas</t>
   </si>
   <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
     <t>Celta</t>
   </si>
   <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
     <t>Betis</t>
   </si>
   <si>
-    <t>Girona</t>
-  </si>
-  <si>
     <t>Alaves</t>
   </si>
   <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
     <t>Ath Bilbao</t>
   </si>
   <si>
@@ -130,13 +133,10 @@
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Mallorca</t>
+    <t>Espanol</t>
   </si>
   <si>
     <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Espanol</t>
   </si>
   <si>
     <t>Leganes</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>8600.0</v>
+        <v>9100.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>5400.0</v>
+        <v>7450.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>5100.0</v>
+        <v>6900.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>4100.0</v>
+        <v>6500.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>4000.0</v>
+        <v>6400.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>3700.0</v>
+        <v>6250.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>3650.0</v>
+        <v>6000.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>3300.0</v>
+        <v>5600.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>3150.0</v>
+        <v>5350.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>2800.0</v>
+        <v>5300.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>2600.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>2400.0</v>
+        <v>3750.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>2400.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>2100.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>2100.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>2000.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>1900.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>1350.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>1100.0</v>
+        <v>1850.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>600.0</v>
+        <v>1350.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>7700.0</v>
+        <v>9100.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>6800.0</v>
+        <v>8400.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>5150.0</v>
+        <v>8350.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>4850.0</v>
+        <v>6450.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>4000.0</v>
+        <v>6150.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>3400.0</v>
+        <v>6150.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>3150.0</v>
+        <v>5850.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>3050.0</v>
+        <v>5200.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>2900.0</v>
+        <v>4950.0</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>2800.0</v>
+        <v>4300.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>2500.0</v>
+        <v>4100.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>2400.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>2100.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>2100.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>1950.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>1800.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>1700.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>1500.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>1400.0</v>
+        <v>1850.0</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>1100.0</v>
+        <v>1550.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>12000.0</v>
+        <v>15800.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1000.0</v>
+        <v>1316.6666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>11700.0</v>
+        <v>13750.0</v>
       </c>
       <c r="D3" t="n">
-        <v>975.0</v>
+        <v>1145.8333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>9600.0</v>
+        <v>12600.0</v>
       </c>
       <c r="D4" t="n">
-        <v>800.0</v>
+        <v>1050.0</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>9400.0</v>
+        <v>12100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>783.3333333333334</v>
+        <v>1008.3333333333334</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>8550.0</v>
+        <v>11200.0</v>
       </c>
       <c r="D6" t="n">
-        <v>712.5</v>
+        <v>933.3333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>7550.0</v>
+        <v>10950.0</v>
       </c>
       <c r="D7" t="n">
-        <v>629.1666666666666</v>
+        <v>912.5</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>6800.0</v>
+        <v>10200.0</v>
       </c>
       <c r="D8" t="n">
-        <v>566.6666666666666</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>6050.0</v>
+        <v>10200.0</v>
       </c>
       <c r="D9" t="n">
-        <v>504.1666666666667</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>5400.0</v>
+        <v>9850.0</v>
       </c>
       <c r="D10" t="n">
-        <v>450.0</v>
+        <v>820.8333333333334</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>5300.0</v>
+        <v>9400.0</v>
       </c>
       <c r="D11" t="n">
-        <v>441.6666666666667</v>
+        <v>783.3333333333334</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>5250.0</v>
+        <v>9200.0</v>
       </c>
       <c r="D12" t="n">
-        <v>437.5</v>
+        <v>766.6666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>5200.0</v>
+        <v>8700.0</v>
       </c>
       <c r="D13" t="n">
-        <v>433.3333333333333</v>
+        <v>725.0</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>5100.0</v>
+        <v>8250.0</v>
       </c>
       <c r="D14" t="n">
-        <v>425.0</v>
+        <v>687.5</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>5100.0</v>
+        <v>8150.0</v>
       </c>
       <c r="D15" t="n">
-        <v>425.0</v>
+        <v>679.1666666666666</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>5050.0</v>
+        <v>8100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>420.8333333333333</v>
+        <v>675.0</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>4000.0</v>
+        <v>8050.0</v>
       </c>
       <c r="D17" t="n">
-        <v>333.3333333333333</v>
+        <v>670.8333333333334</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>3600.0</v>
+        <v>6100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>300.0</v>
+        <v>508.3333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>3200.0</v>
+        <v>6000.0</v>
       </c>
       <c r="D19" t="n">
-        <v>266.6666666666667</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="20">
@@ -955,10 +955,10 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>3100.0</v>
+        <v>4250.0</v>
       </c>
       <c r="D20" t="n">
-        <v>258.3333333333333</v>
+        <v>354.1666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>2750.0</v>
+        <v>3750.0</v>
       </c>
       <c r="D21" t="n">
-        <v>229.16666666666666</v>
+        <v>312.5</v>
       </c>
     </row>
   </sheetData>
